--- a/distances.xlsx
+++ b/distances.xlsx
@@ -7,12 +7,9 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="within_raw" sheetId="1" r:id="rId1"/>
-    <sheet name="within_2axes" sheetId="2" r:id="rId2"/>
-    <sheet name="within_allaxes" sheetId="3" r:id="rId3"/>
-    <sheet name="between_raw" sheetId="4" r:id="rId4"/>
-    <sheet name="between_2axes" sheetId="5" r:id="rId5"/>
-    <sheet name="between_allaxes" sheetId="6" r:id="rId6"/>
+    <sheet name="m1_raw" sheetId="1" r:id="rId1"/>
+    <sheet name="m2_2axes" sheetId="2" r:id="rId2"/>
+    <sheet name="m3_allaxes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -356,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,12 +362,37 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>id1</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>dis</t>
+          <t>фон_2009</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>фон_2014</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>буф_2009</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>буф_2014</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>имп_2009</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>имп_2014</t>
         </is>
       </c>
     </row>
@@ -381,7 +403,22 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.450465097680349</v>
+        <v>0.45</v>
+      </c>
+      <c r="C2">
+        <v>0.47</v>
+      </c>
+      <c r="D2">
+        <v>0.53</v>
+      </c>
+      <c r="E2">
+        <v>0.57</v>
+      </c>
+      <c r="F2">
+        <v>0.87</v>
+      </c>
+      <c r="G2">
+        <v>0.91</v>
       </c>
     </row>
     <row r="3">
@@ -390,8 +427,20 @@
           <t>фон_2014</t>
         </is>
       </c>
-      <c r="B3">
-        <v>0.4263225625114025</v>
+      <c r="C3">
+        <v>0.43</v>
+      </c>
+      <c r="D3">
+        <v>0.57</v>
+      </c>
+      <c r="E3">
+        <v>0.6</v>
+      </c>
+      <c r="F3">
+        <v>0.91</v>
+      </c>
+      <c r="G3">
+        <v>0.95</v>
       </c>
     </row>
     <row r="4">
@@ -400,8 +449,17 @@
           <t>буф_2009</t>
         </is>
       </c>
-      <c r="B4">
-        <v>0.4599203118977578</v>
+      <c r="D4">
+        <v>0.46</v>
+      </c>
+      <c r="E4">
+        <v>0.52</v>
+      </c>
+      <c r="F4">
+        <v>0.89</v>
+      </c>
+      <c r="G4">
+        <v>0.91</v>
       </c>
     </row>
     <row r="5">
@@ -410,8 +468,14 @@
           <t>буф_2014</t>
         </is>
       </c>
-      <c r="B5">
-        <v>0.5217977763558935</v>
+      <c r="E5">
+        <v>0.52</v>
+      </c>
+      <c r="F5">
+        <v>0.87</v>
+      </c>
+      <c r="G5">
+        <v>0.91</v>
       </c>
     </row>
     <row r="6">
@@ -420,8 +484,11 @@
           <t>имп_2009</t>
         </is>
       </c>
-      <c r="B6">
-        <v>0.7989144820222781</v>
+      <c r="F6">
+        <v>0.8</v>
+      </c>
+      <c r="G6">
+        <v>0.75</v>
       </c>
     </row>
     <row r="7">
@@ -430,8 +497,8 @@
           <t>имп_2014</t>
         </is>
       </c>
-      <c r="B7">
-        <v>0.7188060378135347</v>
+      <c r="G7">
+        <v>0.72</v>
       </c>
     </row>
   </sheetData>
@@ -441,7 +508,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -450,12 +517,37 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>id1</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>dis</t>
+          <t>фон_2009</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>фон_2014</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>буф_2009</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>буф_2014</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>имп_2009</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>имп_2014</t>
         </is>
       </c>
     </row>
@@ -466,7 +558,22 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.1255842146526252</v>
+        <v>0.13</v>
+      </c>
+      <c r="C2">
+        <v>0.13</v>
+      </c>
+      <c r="D2">
+        <v>0.13</v>
+      </c>
+      <c r="E2">
+        <v>0.15</v>
+      </c>
+      <c r="F2">
+        <v>0.67</v>
+      </c>
+      <c r="G2">
+        <v>0.75</v>
       </c>
     </row>
     <row r="3">
@@ -475,8 +582,20 @@
           <t>фон_2014</t>
         </is>
       </c>
-      <c r="B3">
-        <v>0.08332403898244865</v>
+      <c r="C3">
+        <v>0.08</v>
+      </c>
+      <c r="D3">
+        <v>0.15</v>
+      </c>
+      <c r="E3">
+        <v>0.19</v>
+      </c>
+      <c r="F3">
+        <v>0.71</v>
+      </c>
+      <c r="G3">
+        <v>0.79</v>
       </c>
     </row>
     <row r="4">
@@ -485,8 +604,17 @@
           <t>буф_2009</t>
         </is>
       </c>
-      <c r="B4">
-        <v>0.1476442897746004</v>
+      <c r="D4">
+        <v>0.15</v>
+      </c>
+      <c r="E4">
+        <v>0.15</v>
+      </c>
+      <c r="F4">
+        <v>0.67</v>
+      </c>
+      <c r="G4">
+        <v>0.75</v>
       </c>
     </row>
     <row r="5">
@@ -495,8 +623,14 @@
           <t>буф_2014</t>
         </is>
       </c>
-      <c r="B5">
-        <v>0.1650992838981304</v>
+      <c r="E5">
+        <v>0.17</v>
+      </c>
+      <c r="F5">
+        <v>0.63</v>
+      </c>
+      <c r="G5">
+        <v>0.71</v>
       </c>
     </row>
     <row r="6">
@@ -505,8 +639,11 @@
           <t>имп_2009</t>
         </is>
       </c>
-      <c r="B6">
-        <v>0.4650814526685738</v>
+      <c r="F6">
+        <v>0.47</v>
+      </c>
+      <c r="G6">
+        <v>0.43</v>
       </c>
     </row>
     <row r="7">
@@ -515,8 +652,8 @@
           <t>имп_2014</t>
         </is>
       </c>
-      <c r="B7">
-        <v>0.4374667385120634</v>
+      <c r="G7">
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>
@@ -526,7 +663,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -535,12 +672,37 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>id1</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>dis</t>
+          <t>фон_2009</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>фон_2014</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>буф_2009</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>буф_2014</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>имп_2009</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>имп_2014</t>
         </is>
       </c>
     </row>
@@ -551,7 +713,22 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.4925576363402959</v>
+        <v>0.49</v>
+      </c>
+      <c r="C2">
+        <v>0.51</v>
+      </c>
+      <c r="D2">
+        <v>0.57</v>
+      </c>
+      <c r="E2">
+        <v>0.6</v>
+      </c>
+      <c r="F2">
+        <v>0.89</v>
+      </c>
+      <c r="G2">
+        <v>0.92</v>
       </c>
     </row>
     <row r="3">
@@ -560,8 +737,20 @@
           <t>фон_2014</t>
         </is>
       </c>
-      <c r="B3">
-        <v>0.4715113050376391</v>
+      <c r="C3">
+        <v>0.47</v>
+      </c>
+      <c r="D3">
+        <v>0.61</v>
+      </c>
+      <c r="E3">
+        <v>0.63</v>
+      </c>
+      <c r="F3">
+        <v>0.93</v>
+      </c>
+      <c r="G3">
+        <v>0.96</v>
       </c>
     </row>
     <row r="4">
@@ -570,8 +759,17 @@
           <t>буф_2009</t>
         </is>
       </c>
-      <c r="B4">
-        <v>0.507659733904758</v>
+      <c r="D4">
+        <v>0.51</v>
+      </c>
+      <c r="E4">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.91</v>
+      </c>
+      <c r="G4">
+        <v>0.93</v>
       </c>
     </row>
     <row r="5">
@@ -580,8 +778,14 @@
           <t>буф_2014</t>
         </is>
       </c>
-      <c r="B5">
-        <v>0.5572883082743215</v>
+      <c r="E5">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F5">
+        <v>0.89</v>
+      </c>
+      <c r="G5">
+        <v>0.92</v>
       </c>
     </row>
     <row r="6">
@@ -590,8 +794,11 @@
           <t>имп_2009</t>
         </is>
       </c>
-      <c r="B6">
-        <v>0.822909995384567</v>
+      <c r="F6">
+        <v>0.82</v>
+      </c>
+      <c r="G6">
+        <v>0.77</v>
       </c>
     </row>
     <row r="7">
@@ -600,383 +807,8 @@
           <t>имп_2014</t>
         </is>
       </c>
-      <c r="B7">
-        <v>0.7396091194289586</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>id1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>буф_2014</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>имп_2009</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>имп_2014</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>фон_2009</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>фон_2014</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>буф_2009</t>
-        </is>
-      </c>
-      <c r="B2">
-        <v>0.5214295259937142</v>
-      </c>
-      <c r="C2">
-        <v>0.8856349476435794</v>
-      </c>
-      <c r="D2">
-        <v>0.9142383063437891</v>
-      </c>
-      <c r="E2">
-        <v>0.5298501062754373</v>
-      </c>
-      <c r="F2">
-        <v>0.5737119025126857</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>буф_2014</t>
-        </is>
-      </c>
-      <c r="C3">
-        <v>0.873766380218962</v>
-      </c>
-      <c r="D3">
-        <v>0.908157703454087</v>
-      </c>
-      <c r="E3">
-        <v>0.5736437694808538</v>
-      </c>
-      <c r="F3">
-        <v>0.5983291494599049</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>имп_2009</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>0.7475081704802666</v>
-      </c>
-      <c r="E4">
-        <v>0.8734932109336447</v>
-      </c>
-      <c r="F4">
-        <v>0.9127792262068121</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>имп_2014</t>
-        </is>
-      </c>
-      <c r="E5">
-        <v>0.9072858644738249</v>
-      </c>
-      <c r="F5">
-        <v>0.9488645432822824</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>фон_2009</t>
-        </is>
-      </c>
-      <c r="F6">
-        <v>0.4664313166863034</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>id1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>буф_2014</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>имп_2009</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>имп_2014</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>фон_2009</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>фон_2014</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>буф_2009</t>
-        </is>
-      </c>
-      <c r="B2">
-        <v>0.1523282836507714</v>
-      </c>
-      <c r="C2">
-        <v>0.666346581863183</v>
-      </c>
-      <c r="D2">
-        <v>0.7473476860646335</v>
-      </c>
-      <c r="E2">
-        <v>0.1303120313650183</v>
-      </c>
-      <c r="F2">
-        <v>0.1509777494447109</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>буф_2014</t>
-        </is>
-      </c>
-      <c r="C3">
-        <v>0.6293922369278362</v>
-      </c>
-      <c r="D3">
-        <v>0.7110028301626479</v>
-      </c>
-      <c r="E3">
-        <v>0.1500169367675161</v>
-      </c>
-      <c r="F3">
-        <v>0.1883031252373457</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>имп_2009</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>0.425531581444191</v>
-      </c>
-      <c r="E4">
-        <v>0.6714266433711008</v>
-      </c>
-      <c r="F4">
-        <v>0.7140723493827054</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>имп_2014</t>
-        </is>
-      </c>
-      <c r="E5">
-        <v>0.7516917408743981</v>
-      </c>
-      <c r="F5">
-        <v>0.791428524165964</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>фон_2009</t>
-        </is>
-      </c>
-      <c r="F6">
-        <v>0.1252055926608981</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>id1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>буф_2014</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>имп_2009</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>имп_2014</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>фон_2009</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>фон_2014</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>буф_2009</t>
-        </is>
-      </c>
-      <c r="B2">
-        <v>0.55866966083659</v>
-      </c>
-      <c r="C2">
-        <v>0.9058363234496576</v>
-      </c>
-      <c r="D2">
-        <v>0.9306359398033425</v>
-      </c>
-      <c r="E2">
-        <v>0.5656606346115138</v>
-      </c>
-      <c r="F2">
-        <v>0.6068384310936792</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>буф_2014</t>
-        </is>
-      </c>
-      <c r="C3">
-        <v>0.8939872512210161</v>
-      </c>
-      <c r="D3">
-        <v>0.9233517693466448</v>
-      </c>
-      <c r="E3">
-        <v>0.6048046442490158</v>
-      </c>
-      <c r="F3">
-        <v>0.6285267793644157</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>имп_2009</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>0.7688914419679872</v>
-      </c>
-      <c r="E4">
-        <v>0.8937860033540228</v>
-      </c>
-      <c r="F4">
-        <v>0.9309458621257664</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>имп_2014</t>
-        </is>
-      </c>
-      <c r="E5">
-        <v>0.9227687713685172</v>
-      </c>
-      <c r="F5">
-        <v>0.9632268866436285</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>фон_2009</t>
-        </is>
-      </c>
-      <c r="F6">
-        <v>0.5078108117684782</v>
+      <c r="G7">
+        <v>0.74</v>
       </c>
     </row>
   </sheetData>
